--- a/exposan/pm2_batch/data/batch_exp_result.xlsx
+++ b/exposan/pm2_batch/data/batch_exp_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BF9313-83DA-452E-857A-6AA38EDBF604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F970EFB-ED55-417F-AC10-A396CBC28FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{EC7A2F61-3DDC-4A57-B61E-94C79A6F2846}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
-  <si>
-    <t>Time (day)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>VSS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,6 +36,10 @@
   </si>
   <si>
     <t>S_P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stamp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,16 +432,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/exposan/pm2_batch/data/batch_exp_result.xlsx
+++ b/exposan/pm2_batch/data/batch_exp_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F970EFB-ED55-417F-AC10-A396CBC28FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE4107-F9CE-480B-983A-3D242BB03D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{EC7A2F61-3DDC-4A57-B61E-94C79A6F2846}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>8.5850000000000009</v>
       </c>
       <c r="D4" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>3.1E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>3.1E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>0.105</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/pm2_batch/data/batch_exp_result.xlsx
+++ b/exposan/pm2_batch/data/batch_exp_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE4107-F9CE-480B-983A-3D242BB03D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001268B-81DC-49EF-8C54-D91E385D7E2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{EC7A2F61-3DDC-4A57-B61E-94C79A6F2846}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>8.5850000000000009</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,8 +622,8 @@
       <c r="C14" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
+      <c r="D14" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,8 +636,8 @@
       <c r="C15" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
+      <c r="D15" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,8 +650,8 @@
       <c r="C16" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
+      <c r="D16" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,8 +664,8 @@
       <c r="C17" s="1">
         <v>0.105</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,8 +678,8 @@
       <c r="C18" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
+      <c r="D18" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,8 +692,8 @@
       <c r="C19" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
+      <c r="D19" s="2">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/pm2_batch/data/batch_exp_result.xlsx
+++ b/exposan/pm2_batch/data/batch_exp_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001268B-81DC-49EF-8C54-D91E385D7E2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44F590-6276-4221-9B01-053EBC88E3F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{EC7A2F61-3DDC-4A57-B61E-94C79A6F2846}"/>
   </bookViews>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63DB189-7EE1-4B01-9A34-CB072232AC82}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>8.5850000000000009</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>0.105</v>
       </c>
       <c r="D17" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,8 +693,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
